--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1170"/>
+  <dimension ref="A1:I1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43152,6 +43152,43 @@
         </is>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1171"/>
+  <dimension ref="A1:I1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43189,6 +43189,43 @@
         </is>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1172"/>
+  <dimension ref="A1:I1173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43226,6 +43226,43 @@
         </is>
       </c>
     </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1173"/>
+  <dimension ref="A1:I1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,43 @@
         </is>
       </c>
     </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1174"/>
+  <dimension ref="A1:I1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43300,6 +43300,43 @@
         </is>
       </c>
     </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1175"/>
+  <dimension ref="A1:I1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43337,6 +43337,43 @@
         </is>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1176"/>
+  <dimension ref="A1:I1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43374,6 +43374,41 @@
         </is>
       </c>
     </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43409,6 +43409,43 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1178"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43446,6 +43446,43 @@
         </is>
       </c>
     </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43483,6 +43483,43 @@
         </is>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1180"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43520,6 +43520,43 @@
         </is>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43557,6 +43557,43 @@
         </is>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43594,6 +43594,80 @@
         </is>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43668,6 +43668,80 @@
         </is>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43742,6 +43742,43 @@
         </is>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43779,6 +43779,43 @@
         </is>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43816,6 +43816,43 @@
         </is>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43853,6 +43853,43 @@
         </is>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43890,6 +43890,43 @@
         </is>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1757"/>
+  <dimension ref="A1:I1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63737,6 +63737,43 @@
         </is>
       </c>
     </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1758" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1758"/>
+  <dimension ref="A1:I1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63774,6 +63774,43 @@
         </is>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1759" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1759"/>
+  <dimension ref="A1:I1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63811,6 +63811,43 @@
         </is>
       </c>
     </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1760" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1760"/>
+  <dimension ref="A1:I1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63848,6 +63848,43 @@
         </is>
       </c>
     </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1761" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1761"/>
+  <dimension ref="A1:I1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63885,6 +63885,41 @@
         </is>
       </c>
     </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1762"/>
+  <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63920,6 +63920,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1763"/>
+  <dimension ref="A1:I1764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63955,6 +63955,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1764"/>
+  <dimension ref="A1:I1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63990,6 +63990,43 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1765" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7854.xlsx
+++ b/data/7854.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1765"/>
+  <dimension ref="A1:I1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64027,6 +64027,43 @@
         </is>
       </c>
     </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>TIMWELL</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1766" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
